--- a/outputs/BAGHA4.xlsx
+++ b/outputs/BAGHA4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: Motivations, Information Processing Style
-Why: Understanding what the conference is about is critical for Abi to determine if her paper aligns with the conference themes and goals. This aligns with her motivation to accomplish her tasks. Additionally, finding out about the conference comprehensively fits her information processing style of gathering complete information before proceeding.</t>
+Why: Abi is motivated to submit a paper to ASE 2019, so understanding what the conference is about is a logical and necessary step. Additionally, Abi's comprehensive information processing style means they would want to gather all relevant information about the conference before proceeding with the submission.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: None of the Above
-Why: The action of accepting cookies is straightforward and presented clearly at the bottom of the screen. It is a common website feature, and the button is labeled explicitly with "Accept &amp; Close," making it easy for Abi to understand what to do. This action does not require technical proficiency or detailed information processing.</t>
+Why: The "Accept &amp; Close" button for cookies is a common and straightforward action on many websites. It is clearly labeled and located at the bottom of the screen, making it easy for Abi to understand and perform this action without requiring additional information or technical expertise.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: None of the Above
-Why: After accepting the cookie, the page does not change significantly, and Abi remains on the conference homepage. The relevant information about what the conference is about is readily available and prominently displayed. Therefore, Abi will know that she did the right thing and is making progress toward her goal of understanding the conference. There is no disruption or confusion caused by accepting the cookie.</t>
+Why: After accepting the cookies, Abi will remain on the same page, which contains comprehensive information about the ASE 2019 conference. This includes details about the conference's purpose, keynotes, distinguished papers, and submission tracks. Therefore, Abi will know that they did the right thing and are making progress toward their goal of finding out what the conference is about.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style
-Why: Scrolling down to see more information is a natural action for Abi, as it aligns with her comprehensive information processing style. The page layout suggests that there is more content available below the fold, prompting Abi to scroll down to gather all the necessary details about the conference.</t>
+Why: Scrolling down to see more information is a natural action for someone with a comprehensive information processing style like Abi. The page layout suggests that more information is available below the fold, and scrolling is a common and intuitive action to access additional content. This aligns with Abi's tendency to gather all relevant information before proceeding.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style
-Why: After scrolling down, Abi will find detailed information about the conference, including keynotes, distinguished papers, and a comprehensive description of ASE 2019. The content is well-organized and directly related to understanding what the conference is about. This aligns with Abi's comprehensive information processing style, enabling her to confirm that she is making progress toward her goal and gathering all the necessary information.</t>
+Why: After scrolling down, Abi will find detailed information about the ASE 2019 conference, including keynotes, distinguished papers, and various tracks for paper submissions. This comprehensive information will help Abi understand what the conference is about, confirming that they are making progress toward their goal. The page is well-organized and provides all the necessary details, aligning with Abi's need for thorough information gathering.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk, Learning Style
-Why: While the page does have a section labeled "ASE 2019 Tracks" with a clickable link for "Research Papers," Abi might not immediately understand that clicking this link will provide her with the specific information she needs. There is no explicit indication of what will be found on the next page. Given Abi's low computer self-efficacy and risk-averse nature, she might hesitate to click on links without clear information about what they will do. Abi prefers a more process-oriented learning style, and without clear guidance or detailed instructions, she might not feel confident in taking this action.</t>
+Facets: Computer Self-Efficacy, Attitude Towards Risk
+Why: The "Research Papers" link in the ASE 2019 tracks box is not explicitly clear about what information it will provide. Given Abi's low confidence in performing unfamiliar computing tasks and their risk-averse nature, they might hesitate to click on a link without knowing exactly what information it will lead to. Abi prefers predictable actions and clear instructions, which are not provided in this case.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Attitude Towards Risk
-Why: After clicking on the "Research Papers" link, Abi lands on a page with a long list of names, which may not immediately provide the information she needs about the conference. The page lacks a clear and concise explanation or overview directly related to the conference's research paper track. Given Abi’s comprehensive information processing style, she may feel overwhelmed by the amount of information and the lack of clear structure. Additionally, due to her low computer self-efficacy and risk-averse nature, she might not feel confident that she is on the right page or making progress toward her goal. This could lead her to doubt whether she did the right thing.</t>
+Facets: Information Processing Style, Computer Self-Efficacy
+Why: After clicking on the "Research Papers" link, Abi lands on a page that appears to list numerous names and affiliations without clear, immediate context or detailed information about the research papers themselves. This page may overwhelm Abi due to the sheer volume of information and lack of clear, organized details about the research papers. Abi's comprehensive information processing style requires clear and structured information, which this page does not provide. Additionally, Abi's low computer self-efficacy may make it difficult for them to navigate and extract the necessary information from this page.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Towards Risk, Learning Style
-Why: The page Abi is currently on is cluttered with a long list of names and lacks clear navigation or directions. There is no prominent or easily identifiable "Call for Papers" link. Given Abi's low computer self-efficacy and risk-averse nature, she might not feel confident in knowing where to click next without explicit guidance. Additionally, Abi prefers a more structured, process-oriented learning style and may feel uncertain about taking an action when the page does not clearly indicate where to find the information she needs.</t>
+Facets: Computer Self-Efficacy, Attitude Towards Risk
+Why: The page Abi is currently on is cluttered with a long list of names and affiliations, which can be overwhelming and confusing. There is no clear indication or prominent link labeled "Call for Papers" that stands out. Given Abi's low confidence in performing unfamiliar computing tasks and their risk-averse nature, they might not feel confident in knowing what to do next or where to find the "Call for Papers" link. The page does not provide clear guidance or instructions, making it difficult for Abi to take the next action confidently.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: Information Processing Style
-Why: After clicking on "Call for Papers," Abi lands on a page that clearly outlines the requirements for submitting research papers. The page provides detailed information about the topics of interest, submission guidelines, and other relevant details. This aligns well with Abi's comprehensive information processing style, enabling her to confirm that she is making progress toward her goal of finding out what the conference is about and gathering all the necessary information.</t>
+Why: After clicking on the "Call for Papers" link, Abi lands on a page that provides detailed and structured information about the call for papers, including topics of interest, submission guidelines, and important dates. This aligns with Abi's comprehensive information processing style, as the page offers all the necessary details in a clear and organized manner. Abi will know that they did the right thing and are making progress toward their goal of finding out what the conference is about and how to submit a paper.</t>
         </is>
       </c>
     </row>
